--- a/biology/Zoologie/Conus_ebraeus/Conus_ebraeus.xlsx
+++ b/biology/Zoologie/Conus_ebraeus/Conus_ebraeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cône hébraïque
-Conus ebraeus, le cône hébraïque[2], est un mollusque gastéropode marin appartenant à la famille des Conidae.
+Conus ebraeus, le cône hébraïque, est un mollusque gastéropode marin appartenant à la famille des Conidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coquille lourde et large à spire basse fortement érodée. Les derniers tours sont à côtés convexes. L'épaulement est arrondi avec des crêtes spirales remarquables au-dessus de celui-ci. Coquille blanchâtre avec 3 larges bandes de taches carrées noires.
 Taille : 25 à 50 mm.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Indien, Pacifique et côte occidentale de l'Amérique du Sud.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eaux peu profondes.
 </t>
@@ -607,7 +625,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Linné en 1758. Classé par le malacologiste Tom Iredale en 1930 dans le sous-genre Virroconus ; le nom complet est Conus (Virroconus) ebraeus.
 </t>
